--- a/yabuki-a/PM演習矢吹a/PM演習_勤務表_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_勤務表_矢吹研A班.xlsx
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_勤務表_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_勤務表_矢吹研A班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>作業時間</t>
     <rPh sb="0" eb="2">
@@ -68,6 +68,10 @@
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マネジメントレポート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -430,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2209,12 +2213,16 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
+      <c r="H98" s="4">
+        <v>5</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="J98" s="4"/>
       <c r="K98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
